--- a/mainadminhtml/samplefile/MIS/continuousdiscloser.xlsx
+++ b/mainadminhtml/samplefile/MIS/continuousdiscloser.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\drreddys\mainadminhtml\samplefile\MIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BBEB06-BCEC-4BBA-9D9C-B56AA340A964}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -35,11 +34,14 @@
   <si>
     <t>Year</t>
   </si>
+  <si>
+    <t>Employee Status</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,29 +358,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="2" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
